--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -25,229 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin_dt_db</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同构成Primary Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -257,22 +249,79 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datum_view</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对象类型。与o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bject表的type关联。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM datum</t>
+  </si>
+  <si>
+    <t>LEFT JOIN object</t>
+  </si>
+  <si>
+    <t>ON datum.obj_id = object.obj_id;</t>
+  </si>
+  <si>
+    <t>视图创建方式：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT datum.dev_id, datum.obj_id, object.type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.expt_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW datum_view AS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +329,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -317,6 +373,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -344,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -372,19 +435,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -437,21 +487,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -464,96 +518,114 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,13 +907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" style="1" customWidth="1"/>
@@ -855,20 +927,20 @@
     <col min="10" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.4" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -876,26 +948,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60.4" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -904,25 +976,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15.4" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -931,154 +1003,255 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="105.4" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="15.4" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.149999999999999" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="90.4" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="15.4" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="120">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.4" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.149999999999999" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.149999999999999" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="H25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="J25" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="105.4" thickBot="1">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="G26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="35" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:E22"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1090,7 +1263,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.796875" style="1" customWidth="1"/>
@@ -1101,41 +1274,41 @@
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -1144,65 +1317,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>13</v>
@@ -1220,18 +1393,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="20" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="21">
         <v>354</v>
@@ -1240,24 +1413,24 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="20" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="21">
         <v>376</v>
@@ -1266,24 +1439,24 @@
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="20" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="21">
         <v>405</v>
@@ -1292,24 +1465,24 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="20" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="21">
         <v>450</v>
@@ -1318,24 +1491,24 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="20" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="21">
         <v>505</v>
@@ -1344,24 +1517,24 @@
         <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="20" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="21">
         <v>560</v>
@@ -1370,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="20" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="21">
         <v>600</v>
@@ -1396,24 +1569,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="20" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="21">
         <v>645</v>
@@ -1422,24 +1595,24 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="20" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="21">
         <v>680</v>
@@ -1448,24 +1621,24 @@
         <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="20" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="21">
         <v>705</v>
@@ -1474,24 +1647,24 @@
         <v>700</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="20" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="21">
         <v>800</v>
@@ -1500,24 +1673,24 @@
         <v>3223</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="20" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="21">
         <v>850</v>
@@ -1526,24 +1699,24 @@
         <v>2049</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="20" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="21">
         <v>910</v>
@@ -1552,24 +1725,24 @@
         <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="20" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="21">
         <v>930</v>
@@ -1578,24 +1751,24 @@
         <v>1704</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" s="20" customFormat="1">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="21">
         <v>970</v>
@@ -1604,24 +1777,24 @@
         <v>3516</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" s="20" customFormat="1">
       <c r="A32" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="21">
         <v>1000</v>
@@ -1630,24 +1803,24 @@
         <v>3432</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="20" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="21">
         <v>1050</v>
@@ -1656,24 +1829,24 @@
         <v>14829</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="20" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="21">
         <v>1070</v>
@@ -1682,24 +1855,24 @@
         <v>8216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" s="20" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="21">
         <v>1200</v>
@@ -1708,24 +1881,24 @@
         <v>13214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="19">
         <v>0.60578703703703707</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" s="21">
         <v>354</v>
@@ -1734,24 +1907,24 @@
         <v>0</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E37" s="21">
         <v>376</v>
@@ -1760,24 +1933,24 @@
         <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E38" s="21">
         <v>405</v>
@@ -1786,24 +1959,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E39" s="21">
         <v>450</v>
@@ -1812,24 +1985,24 @@
         <v>0</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E40" s="21">
         <v>505</v>
@@ -1838,24 +2011,24 @@
         <v>275</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E41" s="21">
         <v>560</v>
@@ -1864,24 +2037,24 @@
         <v>0</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E42" s="21">
         <v>600</v>
@@ -1890,24 +2063,24 @@
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E43" s="21">
         <v>645</v>
@@ -1916,24 +2089,24 @@
         <v>0</v>
       </c>
       <c r="G43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E44" s="21">
         <v>680</v>
@@ -1942,24 +2115,24 @@
         <v>162</v>
       </c>
       <c r="G44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E45" s="21">
         <v>705</v>
@@ -1968,24 +2141,24 @@
         <v>264</v>
       </c>
       <c r="G45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E46" s="21">
         <v>800</v>
@@ -1994,24 +2167,24 @@
         <v>2167</v>
       </c>
       <c r="G46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E47" s="21">
         <v>850</v>
@@ -2020,24 +2193,24 @@
         <v>1793</v>
       </c>
       <c r="G47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E48" s="21">
         <v>910</v>
@@ -2046,24 +2219,24 @@
         <v>98</v>
       </c>
       <c r="G48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E49" s="21">
         <v>930</v>
@@ -2072,24 +2245,24 @@
         <v>1165</v>
       </c>
       <c r="G49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E50" s="21">
         <v>970</v>
@@ -2098,24 +2271,24 @@
         <v>2772</v>
       </c>
       <c r="G50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E51" s="21">
         <v>1000</v>
@@ -2124,24 +2297,24 @@
         <v>2628</v>
       </c>
       <c r="G51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E52" s="21">
         <v>1050</v>
@@ -2150,24 +2323,24 @@
         <v>9959</v>
       </c>
       <c r="G52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E53" s="21">
         <v>1070</v>
@@ -2176,24 +2349,24 @@
         <v>6125</v>
       </c>
       <c r="G53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E54" s="21">
         <v>1200</v>
@@ -2202,20 +2375,20 @@
         <v>9700</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="D55" s="23"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8">
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -25,221 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="72">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -249,27 +249,56 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>detector</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>视图1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>datum_view</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM datum</t>
+  </si>
+  <si>
+    <t>LEFT JOIN object</t>
+  </si>
+  <si>
+    <t>ON datum.obj_id = object.obj_id;</t>
+  </si>
+  <si>
+    <t>视图创建方式：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW datum_view AS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -283,45 +312,46 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>bject表的type关联。</t>
+      <t>bject表的skin_type关联。</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM datum</t>
-  </si>
-  <si>
-    <t>LEFT JOIN object</t>
-  </si>
-  <si>
-    <t>ON datum.obj_id = object.obj_id;</t>
-  </si>
-  <si>
-    <t>视图创建方式：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT datum.dev_id, datum.obj_id, object.type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.expt_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE VIEW datum_view AS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT datum.dev_id, datum.obj_id, object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>skin_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.expt_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_addr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +359,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -518,113 +555,119 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -910,7 +953,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,7 +1040,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
@@ -1038,7 +1081,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -1106,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="120">
@@ -1138,7 +1181,7 @@
         <v>57</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.4" thickBot="1">
@@ -1165,7 +1208,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>13</v>
@@ -1196,8 +1239,8 @@
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>61</v>
+      <c r="D26" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -1220,36 +1263,36 @@
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="34" t="s">
-        <v>68</v>
+      <c r="B29" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2388,7 +2431,7 @@
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -25,221 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -249,35 +249,35 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>detector</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>视图1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>datum_view</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>rec_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FROM datum</t>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>视图创建方式：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CREATE VIEW datum_view AS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>skin_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,7 +314,7 @@
       </rPr>
       <t>bject表的skin_type关联。</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -340,18 +340,22 @@
       </rPr>
       <t>type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.expt_id</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_addr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间。格式参考experiment表的time字段。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +363,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -555,120 +566,123 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,7 +984,7 @@
     <col min="10" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="1" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -978,12 +992,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.4" thickBot="1">
+    <row r="3" spans="1:5" ht="15.4" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1018,11 @@
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60.4" thickBot="1">
+      <c r="E5" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75.400000000000006" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1018,13 +1035,16 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.4" thickBot="1">
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.4" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="9" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="10" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.4" thickBot="1">
+    <row r="11" spans="1:5" ht="105.4" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1060,12 +1080,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.4" thickBot="1">
+    <row r="13" spans="1:5" ht="15.4" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90.4" thickBot="1">
+    <row r="16" spans="1:5" ht="90.4" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1171,8 +1191,8 @@
       <c r="F21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>47</v>
+      <c r="G21" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>56</v>
@@ -1292,7 +1312,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2431,7 +2451,7 @@
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -28,218 +28,218 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -249,35 +249,35 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>detector</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>视图1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>datum_view</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>rec_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FROM datum</t>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>视图创建方式：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CREATE VIEW datum_view AS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>skin_type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,11 +314,19 @@
       </rPr>
       <t>bject表的skin_type关联。</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev_addr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间。格式参考experiment表的time字段。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SELECT datum.dev_id, datum.obj_id, object.</t>
+      <t>SELECT datum.obj_id, object.</t>
     </r>
     <r>
       <rPr>
@@ -328,34 +336,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>skin_</t>
+      <t>skin_type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.dev_id, datum.expt_id</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.expt_id</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_addr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间。格式参考experiment表的time字段。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +353,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -570,119 +567,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1101,7 +1098,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>9</v>
@@ -1191,8 +1188,8 @@
       <c r="F21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>72</v>
+      <c r="G21" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>56</v>
@@ -1222,28 +1219,28 @@
         <v>4</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>30</v>
@@ -1253,29 +1250,29 @@
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>57</v>
@@ -1292,8 +1289,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="37" t="s">
-        <v>70</v>
+      <c r="B29" s="38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1312,7 +1309,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2451,7 +2448,7 @@
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="5243"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="5243" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="原型" sheetId="1" r:id="rId1"/>
     <sheet name="样例" sheetId="3" r:id="rId2"/>
+    <sheet name="History" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,221 +26,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -249,35 +242,35 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>detector</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>视图1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>datum_view</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>rec_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FROM datum</t>
@@ -290,15 +283,15 @@
   </si>
   <si>
     <t>视图创建方式：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CREATE VIEW datum_view AS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skin_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,15 +307,15 @@
       </rPr>
       <t>bject表的skin_type关联。</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dev_addr</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采集时间。格式参考experiment表的time字段。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -338,14 +331,25 @@
       </rPr>
       <t>skin_type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.dev_id, datum.expt_id</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>descpt</t>
+  </si>
+  <si>
+    <t>descpt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>“desc”不能在mysql中是关键字，不能作为列名。更改为“descpt”。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +357,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -563,123 +574,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.4" thickBot="1">
@@ -1007,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75.400000000000006" thickBot="1">
@@ -1024,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.4" thickBot="1">
@@ -1046,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1054,13 +1068,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105.4" thickBot="1">
@@ -1068,18 +1082,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.4" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1087,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1095,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90.4" thickBot="1">
@@ -1109,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1126,7 +1140,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.4" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
@@ -1134,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
@@ -1142,31 +1156,31 @@
         <v>4</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>18</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="120">
@@ -1174,36 +1188,36 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.4" thickBot="1">
       <c r="A23" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.149999999999999" thickBot="1">
@@ -1211,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.149999999999999" thickBot="1">
@@ -1219,31 +1233,31 @@
         <v>4</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="105.4" thickBot="1">
@@ -1251,65 +1265,65 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1320,7 +1334,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1341,10 +1355,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1355,60 +1369,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1416,55 +1430,55 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E17" s="21">
         <v>354</v>
@@ -1473,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="19">
         <v>0.60578703703703707</v>
@@ -1481,16 +1495,16 @@
     </row>
     <row r="18" spans="1:8" s="20" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E18" s="21">
         <v>376</v>
@@ -1499,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="19">
         <v>0.60578703703703707</v>
@@ -1507,16 +1521,16 @@
     </row>
     <row r="19" spans="1:8" s="20" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E19" s="21">
         <v>405</v>
@@ -1525,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" s="19">
         <v>0.60578703703703707</v>
@@ -1533,16 +1547,16 @@
     </row>
     <row r="20" spans="1:8" s="20" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E20" s="21">
         <v>450</v>
@@ -1551,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" s="19">
         <v>0.60578703703703707</v>
@@ -1559,16 +1573,16 @@
     </row>
     <row r="21" spans="1:8" s="20" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E21" s="21">
         <v>505</v>
@@ -1577,7 +1591,7 @@
         <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="19">
         <v>0.60578703703703707</v>
@@ -1585,16 +1599,16 @@
     </row>
     <row r="22" spans="1:8" s="20" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E22" s="21">
         <v>560</v>
@@ -1603,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H22" s="19">
         <v>0.60578703703703707</v>
@@ -1611,16 +1625,16 @@
     </row>
     <row r="23" spans="1:8" s="20" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E23" s="21">
         <v>600</v>
@@ -1629,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" s="19">
         <v>0.60578703703703707</v>
@@ -1637,16 +1651,16 @@
     </row>
     <row r="24" spans="1:8" s="20" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E24" s="21">
         <v>645</v>
@@ -1655,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="19">
         <v>0.60578703703703707</v>
@@ -1663,16 +1677,16 @@
     </row>
     <row r="25" spans="1:8" s="20" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E25" s="21">
         <v>680</v>
@@ -1681,7 +1695,7 @@
         <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" s="19">
         <v>0.60578703703703707</v>
@@ -1689,16 +1703,16 @@
     </row>
     <row r="26" spans="1:8" s="20" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E26" s="21">
         <v>705</v>
@@ -1707,7 +1721,7 @@
         <v>700</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" s="19">
         <v>0.60578703703703707</v>
@@ -1715,16 +1729,16 @@
     </row>
     <row r="27" spans="1:8" s="20" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E27" s="21">
         <v>800</v>
@@ -1733,7 +1747,7 @@
         <v>3223</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" s="19">
         <v>0.60578703703703707</v>
@@ -1741,16 +1755,16 @@
     </row>
     <row r="28" spans="1:8" s="20" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E28" s="21">
         <v>850</v>
@@ -1759,7 +1773,7 @@
         <v>2049</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" s="19">
         <v>0.60578703703703707</v>
@@ -1767,16 +1781,16 @@
     </row>
     <row r="29" spans="1:8" s="20" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E29" s="21">
         <v>910</v>
@@ -1785,7 +1799,7 @@
         <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H29" s="19">
         <v>0.60578703703703707</v>
@@ -1793,16 +1807,16 @@
     </row>
     <row r="30" spans="1:8" s="20" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E30" s="21">
         <v>930</v>
@@ -1811,7 +1825,7 @@
         <v>1704</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H30" s="19">
         <v>0.60578703703703707</v>
@@ -1819,16 +1833,16 @@
     </row>
     <row r="31" spans="1:8" s="20" customFormat="1">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E31" s="21">
         <v>970</v>
@@ -1837,7 +1851,7 @@
         <v>3516</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H31" s="19">
         <v>0.60578703703703707</v>
@@ -1845,16 +1859,16 @@
     </row>
     <row r="32" spans="1:8" s="20" customFormat="1">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E32" s="21">
         <v>1000</v>
@@ -1863,7 +1877,7 @@
         <v>3432</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H32" s="19">
         <v>0.60578703703703707</v>
@@ -1871,16 +1885,16 @@
     </row>
     <row r="33" spans="1:8" s="20" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E33" s="21">
         <v>1050</v>
@@ -1889,7 +1903,7 @@
         <v>14829</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H33" s="19">
         <v>0.60578703703703707</v>
@@ -1897,16 +1911,16 @@
     </row>
     <row r="34" spans="1:8" s="20" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E34" s="21">
         <v>1070</v>
@@ -1915,7 +1929,7 @@
         <v>8216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H34" s="19">
         <v>0.60578703703703707</v>
@@ -1923,16 +1937,16 @@
     </row>
     <row r="35" spans="1:8" s="20" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E35" s="21">
         <v>1200</v>
@@ -1941,7 +1955,7 @@
         <v>13214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35" s="19">
         <v>0.60578703703703707</v>
@@ -1949,16 +1963,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="21">
         <v>354</v>
@@ -1967,24 +1981,24 @@
         <v>0</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="21">
         <v>376</v>
@@ -1993,24 +2007,24 @@
         <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="21">
         <v>405</v>
@@ -2019,24 +2033,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39" s="21">
         <v>450</v>
@@ -2045,24 +2059,24 @@
         <v>0</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="21">
         <v>505</v>
@@ -2071,24 +2085,24 @@
         <v>275</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="21">
         <v>560</v>
@@ -2097,24 +2111,24 @@
         <v>0</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="21">
         <v>600</v>
@@ -2123,24 +2137,24 @@
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E43" s="21">
         <v>645</v>
@@ -2149,24 +2163,24 @@
         <v>0</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44" s="21">
         <v>680</v>
@@ -2175,24 +2189,24 @@
         <v>162</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45" s="21">
         <v>705</v>
@@ -2201,24 +2215,24 @@
         <v>264</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46" s="21">
         <v>800</v>
@@ -2227,24 +2241,24 @@
         <v>2167</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E47" s="21">
         <v>850</v>
@@ -2253,24 +2267,24 @@
         <v>1793</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E48" s="21">
         <v>910</v>
@@ -2279,24 +2293,24 @@
         <v>98</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E49" s="21">
         <v>930</v>
@@ -2305,24 +2319,24 @@
         <v>1165</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E50" s="21">
         <v>970</v>
@@ -2331,24 +2345,24 @@
         <v>2772</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E51" s="21">
         <v>1000</v>
@@ -2357,24 +2371,24 @@
         <v>2628</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52" s="21">
         <v>1050</v>
@@ -2383,24 +2397,24 @@
         <v>9959</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53" s="21">
         <v>1070</v>
@@ -2409,24 +2423,24 @@
         <v>6125</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E54" s="21">
         <v>1200</v>
@@ -2435,10 +2449,10 @@
         <v>9700</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2448,8 +2462,37 @@
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="39">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design_docs/数据库结构.xlsx
+++ b/design_docs/数据库结构.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="5243" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="5243"/>
   </bookViews>
   <sheets>
     <sheet name="原型" sheetId="1" r:id="rId1"/>
@@ -26,213 +26,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="80">
   <si>
     <t>库名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>experiment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>列说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。字符串。可以为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>datum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>pos</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>位置。字符串。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>lambda</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字，对本次实验的说明。字符串。可以为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>光波波长。目前有19个可选值，后续可能增加。数字。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2022-10-14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>敏感型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>额头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>首次在佰鸿对志愿者进行数据采集，10月14日至21日期间采集了5种类型。使用原始设备进行采集。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>device</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expt_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。后续可能增加。字符串。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>obj_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对象编号。与object表的obj_id关联。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集到的数据。数字。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设备标识。取值建议按数字递增。字符串。
 Primary Key</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集对象编号。如果是人，一般一人一个编号；但如果存在一个人属于多种类型的情况，则会有多个编号，每种类型一个。字符串。
 Primary Key</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。可以为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>描述性文字。对设备进行说明。字符串。可以为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验编号。取值建议按数字递增。字符串。
-Primary Key</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集日期。格式参考experiment表的date字段。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。不能为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>27:A5:D2:1E:67:DD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>原始设备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Z0015</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皱纹型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -242,35 +209,27 @@
   </si>
   <si>
     <t>左内眼角</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>采集数据使用的设备标识。与device表的dev_id关联。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验编号。与experiment表的expt_id关联。可以为空。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>detector</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>视图1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>datum_view</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>rec_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成的记录id（Auto Increment）。作为Primary Key。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FROM datum</t>
@@ -283,39 +242,19 @@
   </si>
   <si>
     <t>视图创建方式：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CREATE VIEW datum_view AS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>skin_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>对象类型。与o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>bject表的skin_type关联。</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>dev_addr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间。格式参考experiment表的time字段。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,25 +270,208 @@
       </rPr>
       <t>skin_type, datum.pos, datum.lambda, datum.data, datum.date,  datum.time, datum.dev_id, datum.expt_id</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>descpt</t>
   </si>
   <si>
     <t>descpt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>“desc”不能在mysql中是关键字，不能作为列名。更改为“descpt”。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 本地数据库detector.sqlite和远程mysql服务器上的数据库结构一样，都包含上述table和view；本地safe_ldb_for_rdb.sqlite只包含table，不包含view。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 本地detector.csv文件与datum_view格式一致。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 向datum表进行插入的时候，不会进行重复性检测，rec_id会自动递增。也即，每一次向datum表插入的数据，如果没有其它异常，都会被记录下来。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 向experiments、devices、objects表插入的数据，会根据primary key做重复性检测，如果发现表中已经存在相同primary key的记录，会将新记录的数据附加到已有记录对应数据字段之后（使用“***”分隔）。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验编号。字符串。
+Primary Key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验开始的日期。格式为“YYYY-MM-DD”。字符串。APP软件自动生成。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集时间。格式为“HH:MM:SS”，24小时制。字符串。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件自动生成。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤归属的类型。目前有5个可选值：干燥型，敏感型，痤疮型，皱纹型，色沉型。可手动输入新值。字符串。不能为空。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设备MAC地址。格式为“HH:HH:HH:HH:HH:HH”。“H”为十六进制字符。字符串。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件自动生成。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>光波波长。uint32数字。不能为空。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集到的数据。u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字。不能为空。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集日期。格式参考experiment表的date字段。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件自动生成。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集时间。格式参考experiment表的time字段。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件自动生成。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验编号。与experiment表的expt_id关联。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的记录id（Auto Increment）。Primary Key。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考objects表格。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考datum表格。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,20 +479,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -578,122 +686,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.4" thickBot="1">
@@ -1021,33 +1129,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>17</v>
+      <c r="E5" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75.400000000000006" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
+      <c r="B6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.4" thickBot="1">
@@ -1060,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1068,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105.4" thickBot="1">
@@ -1082,18 +1190,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.4" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1101,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.149999999999999" thickBot="1">
@@ -1109,13 +1217,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90.4" thickBot="1">
@@ -1123,13 +1231,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1140,84 +1248,84 @@
     </row>
     <row r="18" spans="1:10" ht="15.4" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>11</v>
+      <c r="B19" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="B20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="G20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>17</v>
-      </c>
       <c r="H20" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="120">
+        <v>27</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="105">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.4" thickBot="1">
-      <c r="A23" s="27" t="s">
-        <v>57</v>
+      <c r="A23" s="26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.149999999999999" thickBot="1">
@@ -1225,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.149999999999999" thickBot="1">
@@ -1233,97 +1341,122 @@
         <v>4</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="105.4" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45.4" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="B26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="26" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="29" spans="1:10">
-      <c r="B29" s="38" t="s">
-        <v>70</v>
+      <c r="B29" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="35" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="36" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1333,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1355,10 +1488,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -1369,60 +1502,60 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1430,55 +1563,55 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E17" s="21">
         <v>354</v>
@@ -1487,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="19">
         <v>0.60578703703703707</v>
@@ -1495,16 +1628,16 @@
     </row>
     <row r="18" spans="1:8" s="20" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E18" s="21">
         <v>376</v>
@@ -1513,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="19">
         <v>0.60578703703703707</v>
@@ -1521,16 +1654,16 @@
     </row>
     <row r="19" spans="1:8" s="20" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E19" s="21">
         <v>405</v>
@@ -1539,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="19">
         <v>0.60578703703703707</v>
@@ -1547,16 +1680,16 @@
     </row>
     <row r="20" spans="1:8" s="20" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E20" s="21">
         <v>450</v>
@@ -1565,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="19">
         <v>0.60578703703703707</v>
@@ -1573,16 +1706,16 @@
     </row>
     <row r="21" spans="1:8" s="20" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E21" s="21">
         <v>505</v>
@@ -1591,7 +1724,7 @@
         <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="19">
         <v>0.60578703703703707</v>
@@ -1599,16 +1732,16 @@
     </row>
     <row r="22" spans="1:8" s="20" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E22" s="21">
         <v>560</v>
@@ -1617,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="19">
         <v>0.60578703703703707</v>
@@ -1625,16 +1758,16 @@
     </row>
     <row r="23" spans="1:8" s="20" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E23" s="21">
         <v>600</v>
@@ -1643,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="19">
         <v>0.60578703703703707</v>
@@ -1651,16 +1784,16 @@
     </row>
     <row r="24" spans="1:8" s="20" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E24" s="21">
         <v>645</v>
@@ -1669,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="19">
         <v>0.60578703703703707</v>
@@ -1677,16 +1810,16 @@
     </row>
     <row r="25" spans="1:8" s="20" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E25" s="21">
         <v>680</v>
@@ -1695,7 +1828,7 @@
         <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="19">
         <v>0.60578703703703707</v>
@@ -1703,16 +1836,16 @@
     </row>
     <row r="26" spans="1:8" s="20" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E26" s="21">
         <v>705</v>
@@ -1721,7 +1854,7 @@
         <v>700</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="19">
         <v>0.60578703703703707</v>
@@ -1729,16 +1862,16 @@
     </row>
     <row r="27" spans="1:8" s="20" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E27" s="21">
         <v>800</v>
@@ -1747,7 +1880,7 @@
         <v>3223</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H27" s="19">
         <v>0.60578703703703707</v>
@@ -1755,16 +1888,16 @@
     </row>
     <row r="28" spans="1:8" s="20" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E28" s="21">
         <v>850</v>
@@ -1773,7 +1906,7 @@
         <v>2049</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="19">
         <v>0.60578703703703707</v>
@@ -1781,16 +1914,16 @@
     </row>
     <row r="29" spans="1:8" s="20" customFormat="1">
       <c r="A29" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E29" s="21">
         <v>910</v>
@@ -1799,7 +1932,7 @@
         <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" s="19">
         <v>0.60578703703703707</v>
@@ -1807,16 +1940,16 @@
     </row>
     <row r="30" spans="1:8" s="20" customFormat="1">
       <c r="A30" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E30" s="21">
         <v>930</v>
@@ -1825,7 +1958,7 @@
         <v>1704</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="19">
         <v>0.60578703703703707</v>
@@ -1833,16 +1966,16 @@
     </row>
     <row r="31" spans="1:8" s="20" customFormat="1">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E31" s="21">
         <v>970</v>
@@ -1851,7 +1984,7 @@
         <v>3516</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" s="19">
         <v>0.60578703703703707</v>
@@ -1859,16 +1992,16 @@
     </row>
     <row r="32" spans="1:8" s="20" customFormat="1">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E32" s="21">
         <v>1000</v>
@@ -1877,7 +2010,7 @@
         <v>3432</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" s="19">
         <v>0.60578703703703707</v>
@@ -1885,16 +2018,16 @@
     </row>
     <row r="33" spans="1:8" s="20" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E33" s="21">
         <v>1050</v>
@@ -1903,7 +2036,7 @@
         <v>14829</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H33" s="19">
         <v>0.60578703703703707</v>
@@ -1911,16 +2044,16 @@
     </row>
     <row r="34" spans="1:8" s="20" customFormat="1">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E34" s="21">
         <v>1070</v>
@@ -1929,7 +2062,7 @@
         <v>8216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34" s="19">
         <v>0.60578703703703707</v>
@@ -1937,16 +2070,16 @@
     </row>
     <row r="35" spans="1:8" s="20" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E35" s="21">
         <v>1200</v>
@@ -1955,7 +2088,7 @@
         <v>13214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" s="19">
         <v>0.60578703703703707</v>
@@ -1963,16 +2096,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E36" s="21">
         <v>354</v>
@@ -1981,24 +2114,24 @@
         <v>0</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E37" s="21">
         <v>376</v>
@@ -2007,24 +2140,24 @@
         <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E38" s="21">
         <v>405</v>
@@ -2033,24 +2166,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E39" s="21">
         <v>450</v>
@@ -2059,24 +2192,24 @@
         <v>0</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E40" s="21">
         <v>505</v>
@@ -2085,24 +2218,24 @@
         <v>275</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E41" s="21">
         <v>560</v>
@@ -2111,24 +2244,24 @@
         <v>0</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E42" s="21">
         <v>600</v>
@@ -2137,24 +2270,24 @@
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E43" s="21">
         <v>645</v>
@@ -2163,24 +2296,24 @@
         <v>0</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E44" s="21">
         <v>680</v>
@@ -2189,24 +2322,24 @@
         <v>162</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E45" s="21">
         <v>705</v>
@@ -2215,24 +2348,24 @@
         <v>264</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E46" s="21">
         <v>800</v>
@@ -2241,24 +2374,24 @@
         <v>2167</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E47" s="21">
         <v>850</v>
@@ -2267,24 +2400,24 @@
         <v>1793</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E48" s="21">
         <v>910</v>
@@ -2293,24 +2426,24 @@
         <v>98</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E49" s="21">
         <v>930</v>
@@ -2319,24 +2452,24 @@
         <v>1165</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E50" s="21">
         <v>970</v>
@@ -2345,24 +2478,24 @@
         <v>2772</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E51" s="21">
         <v>1000</v>
@@ -2371,24 +2504,24 @@
         <v>2628</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E52" s="21">
         <v>1050</v>
@@ -2397,24 +2530,24 @@
         <v>9959</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E53" s="21">
         <v>1070</v>
@@ -2423,24 +2556,24 @@
         <v>6125</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E54" s="21">
         <v>1200</v>
@@ -2449,10 +2582,10 @@
         <v>9700</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2462,7 +2595,7 @@
       <c r="D56" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2472,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2482,17 +2615,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="39">
+      <c r="A1" s="35">
         <v>44911</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>